--- a/ProgressBook.xlsx
+++ b/ProgressBook.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\EquityAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA644B04-C706-47CA-BA9E-CBBDA7989864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5AABD-8409-43A4-B171-DABD05801FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Log" sheetId="2" r:id="rId1"/>
+    <sheet name="Process" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Created a GBM (Gausian brownian motion). Used Garman-Klass volatility model to measure volatility</t>
+  </si>
+  <si>
+    <t>To do next:</t>
+  </si>
+  <si>
+    <t>Altered GBM model and used the YZ (Yang-zhang) estimator as it's supposed to be better in markets with drift</t>
+  </si>
+  <si>
+    <t>Created another model using Ornstein-Uhlenbeck, for reverting to long-term averages (not sure what to do with this)</t>
+  </si>
+  <si>
+    <t>Created a price correlation script to assess historical price movements and whether they correlate to future price movements.</t>
+  </si>
+  <si>
+    <t>Get access to more data to test widely. Add volume.</t>
+  </si>
+  <si>
+    <t>Comments:</t>
+  </si>
+  <si>
+    <t>Proud of this, got to continue researching</t>
+  </si>
+  <si>
+    <t>Figure out which volatility measure to use with OU model</t>
+  </si>
+  <si>
+    <t>Created a Bayesian forecast on the hunch that past price movements influence future movemnts</t>
+  </si>
+  <si>
+    <t>Needs more work. Come back after price correlation</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +720,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B67D4-68FE-4CA4-9826-036E864839CC}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.54296875" customWidth="1"/>
+    <col min="3" max="3" width="44.90625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>45524</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A22" si="0">A3+1</f>
+        <v>45525</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>45526</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>45527</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>45542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>45543</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65C67A5-F3B0-413D-A903-19695364116B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>

--- a/ProgressBook.xlsx
+++ b/ProgressBook.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\EquityAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5AABD-8409-43A4-B171-DABD05801FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96AC04E-3793-4C52-BDBB-24EA5361438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
     <sheet name="Process" sheetId="1" r:id="rId2"/>
+    <sheet name="Strategy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -394,6 +395,467 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
             <a:t>- Options greeks (delta, theta, gamma, etc.)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" u="none"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF94CD7-FD30-7529-E2A9-E4CD88D6534E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="488950" y="2730500"/>
+          <a:ext cx="1714500" cy="2178050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Financials</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>- Ratios</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>- Cash flow</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>- B/S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>- etc.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F312134-1C68-4420-90EC-588DE77297E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="2749550"/>
+          <a:ext cx="1714500" cy="2178050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Fundamentals</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>- Market positioning</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>- Business</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t> environment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>- Competitors</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" u="none"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D577F245-9DED-4607-A72A-390CD89ED895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="165100"/>
+          <a:ext cx="3117850" cy="2178050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Strategy - Target Opportunities</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t> Overvalued equities (short)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>- Natural gas equities (no debt) and that are pure price plays (long or short)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>- Energy transistion stocks or companies investing in clean energy tech(long or short)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>- Companies whose assets are in storm paths</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>- Strategy depends on how confident in algoirithm I am.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" u="none"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E99C5A-AE53-4423-A3BE-A8FE60FF5067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="177800"/>
+          <a:ext cx="2838450" cy="2178050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>My Unfair Advantage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>- Well-developed, quantitative algoirhtm that enhances my succes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>- Continue to explore</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894B9F6A-71D5-418E-B0BD-D3794C5AFFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3911600" y="158750"/>
+          <a:ext cx="3397250" cy="2178050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Risk Management</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>- Risk is firmly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t> controlled with algorithms</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>- Find ways to minmize risk wit algorithm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>- Be picky about stocks you pick</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>- Make sure fit certain criteria</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" u="none"/>
         </a:p>
@@ -723,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B67D4-68FE-4CA4-9826-036E864839CC}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,7 +1370,22 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2536A63-BD9A-411E-9F89-9E19D0D10C0D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ProgressBook.xlsx
+++ b/ProgressBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\EquityAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchung\Personal\EquityAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96AC04E-3793-4C52-BDBB-24EA5361438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2796D6E7-27AE-46A2-907B-C77DFF565E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="23340" windowHeight="15300" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -75,6 +75,15 @@
   <si>
     <t>Needs more work. Come back after price correlation</t>
   </si>
+  <si>
+    <t>Researched ways to leverage volatility for insight. Measure volatility to identify possible mispricings, sentiment of a company compared to sector, compared to historical</t>
+  </si>
+  <si>
+    <t>Look for historical options and equity data</t>
+  </si>
+  <si>
+    <t>Found polygon.io for monthly plan</t>
+  </si>
 </sst>
 </file>
 
@@ -89,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,9 +124,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,20 +1208,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B67D4-68FE-4CA4-9826-036E864839CC}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="103.54296875" style="4" customWidth="1"/>
     <col min="3" max="3" width="44.90625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -1212,7 +1235,7 @@
       <c r="A2" s="1">
         <v>45523</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1221,7 +1244,7 @@
         <f>A2+1</f>
         <v>45524</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1230,7 +1253,7 @@
         <f t="shared" ref="A4:A22" si="0">A3+1</f>
         <v>45525</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
@@ -1242,7 +1265,7 @@
         <f t="shared" si="0"/>
         <v>45526</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1257,107 +1280,116 @@
         <f t="shared" si="0"/>
         <v>45527</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>45528</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>45529</v>
+        <v>45561</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>45530</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>45531</v>
+        <v>45563</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>45532</v>
+        <v>45564</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>45533</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>45534</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>45535</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>45536</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>45537</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>45538</v>
+        <v>45570</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>45539</v>
+        <v>45571</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>45540</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>45541</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>45542</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>45543</v>
+        <v>45575</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2536A63-BD9A-411E-9F89-9E19D0D10C0D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/ProgressBook.xlsx
+++ b/ProgressBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchung\Personal\EquityAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2796D6E7-27AE-46A2-907B-C77DFF565E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903991D4-F54B-4736-B0F2-2E7CFC1314CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="23340" windowHeight="15300" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
+    <workbookView xWindow="100" yWindow="5100" windowWidth="23620" windowHeight="15700" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Found polygon.io for monthly plan</t>
+  </si>
+  <si>
+    <t>Make a script that measures VaR and cVaR for an equity so I know how it works</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1212,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1342,6 +1345,9 @@
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>45567</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1425,4 +1431,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{95965d95-ecc0-4720-b759-1f33c42ed7da}" enabled="1" method="Standard" siteId="{a0f29d7e-28cd-4f54-8442-7885aee7c080}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/ProgressBook.xlsx
+++ b/ProgressBook.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchung\Personal\EquityAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903991D4-F54B-4736-B0F2-2E7CFC1314CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7FF5DB-C46C-4CEF-8165-DBE54237A065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="5100" windowWidth="23620" windowHeight="15700" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="24285" windowHeight="10185" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
     <sheet name="Process" sheetId="1" r:id="rId2"/>
     <sheet name="Strategy" sheetId="3" r:id="rId3"/>
+    <sheet name="PromptsToFollowUpOn" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -85,7 +86,22 @@
     <t>Found polygon.io for monthly plan</t>
   </si>
   <si>
-    <t>Make a script that measures VaR and cVaR for an equity so I know how it works</t>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>Make a script that measures VaR and cVaR for an equity so I know how it works. Made another one with stress testing.</t>
+  </si>
+  <si>
+    <t>Make another file that scrolls through all .CSVs to calculate "Portfolio VaR and cVaR" a (e.g. GARCH)nd understand improved mathematical concepts</t>
+  </si>
+  <si>
+    <t>Now pretend you are Warren Buffet. I want to invest in Chinese stocks but want to apply Warren's mindset of long term purchases to a foreign market. Help me understand how Warren would evaluate equities and what considerations he would take into account before buying and his timing of purchases.</t>
+  </si>
+  <si>
+    <t>Provided the answer I expected</t>
+  </si>
+  <si>
+    <t>Created another one that scrolls through all CSVs in folder to calculate portfolio wide and invdidual stats and stress tests. Created a script that forecasts GARCH but doesn't return anything useful. Might have to break it down into pieces.</t>
   </si>
 </sst>
 </file>
@@ -127,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -136,6 +152,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1212,7 +1231,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,19 +1366,28 @@
         <v>45567</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>45568</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>45569</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -1433,6 +1461,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475BACC9-4A7A-4D27-BBB3-E051DBFD0E91}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="100.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95965d95-ecc0-4720-b759-1f33c42ed7da}" enabled="1" method="Standard" siteId="{a0f29d7e-28cd-4f54-8442-7885aee7c080}" contentBits="0" removed="0"/>

--- a/ProgressBook.xlsx
+++ b/ProgressBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchung\Personal\EquityAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7FF5DB-C46C-4CEF-8165-DBE54237A065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4A6C88-9592-4EAA-830C-BB9F11526321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="24285" windowHeight="10185" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
+    <workbookView xWindow="9850" yWindow="400" windowWidth="27590" windowHeight="19990" xr2:uid="{C81E7557-AA14-4D28-85E2-CF30A5309EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Item</t>
   </si>
@@ -101,7 +101,13 @@
     <t>Provided the answer I expected</t>
   </si>
   <si>
-    <t>Created another one that scrolls through all CSVs in folder to calculate portfolio wide and invdidual stats and stress tests. Created a script that forecasts GARCH but doesn't return anything useful. Might have to break it down into pieces.</t>
+    <t>SUCCESS! Forecasted higher Vol in next 14 days. Let's see!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created another one that scrolls through all CSVs in folder to calculate portfolio wide and invdidual stats and stress tests. Created a script that forecasts vol using GARCH (1,1) model. </t>
+  </si>
+  <si>
+    <t>Add more variables to GARCH model (e.g. sentiment, volume, bid/ask. Implied vol)</t>
   </si>
 </sst>
 </file>
@@ -1231,18 +1237,18 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="103.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45523</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>45524</v>
@@ -1270,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A22" si="0">A3+1</f>
         <v>45525</v>
@@ -1282,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>45526</v>
@@ -1297,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>45527</v>
@@ -1309,14 +1315,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>45528</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45561</v>
       </c>
@@ -1330,37 +1336,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>45562</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>45563</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>45564</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>45565</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>45566</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>45567</v>
@@ -1372,7 +1378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>45568</v>
@@ -1381,46 +1387,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>45569</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>45570</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>45571</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>45572</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>45573</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>45574</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>45575</v>
@@ -1439,7 +1451,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1454,7 +1466,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1469,9 +1481,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="100.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="100.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
